--- a/resources/documents/DTR_5.xlsx
+++ b/resources/documents/DTR_5.xlsx
@@ -196,28 +196,28 @@
     <t>Name</t>
   </si>
   <si>
-    <t>456, 456 123</t>
-  </si>
-  <si>
-    <t>For the Month of: May 2022 - June 2022</t>
-  </si>
-  <si>
-    <t>Office Hours     Arrival A.M. 08:00:00          P.M. 13:00:00</t>
+    <t>asdasd, asdasdsad asdasds</t>
+  </si>
+  <si>
+    <t>For the Month of: June 2022</t>
+  </si>
+  <si>
+    <t>Office Hours    Arrival A.M. 08:00:00          P.M. 13:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">               Departure A.M.12:00:00          P.M.17:00:00</t>
   </si>
   <si>
-    <t>2022-06-15 18:40:39</t>
-  </si>
-  <si>
-    <t>2022-06-15 18:40:42</t>
-  </si>
-  <si>
-    <t>2022-06-16 11:04:45</t>
-  </si>
-  <si>
-    <t>2022-06-16 11:04:47</t>
+    <t>10:36 am</t>
+  </si>
+  <si>
+    <t>08:13 am</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>0 Minute/s</t>
   </si>
 </sst>
 </file>
@@ -1274,21 +1274,11 @@
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <v>755.0</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -1496,9 +1486,15 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
@@ -1598,7 +1594,9 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
